--- a/Demo-Painite-master/TestData/Data.xlsx
+++ b/Demo-Painite-master/TestData/Data.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF771FC3-D1A8-4C1F-A442-03422F91EDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="10920" windowHeight="4035"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:E11"/>
 </workbook>
 </file>
 
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,7 +199,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,26 +232,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,23 +267,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -476,20 +442,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.453125" customWidth="1"/>
-    <col min="2" max="2" width="34.1796875" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +465,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -507,7 +473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -515,7 +481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -523,7 +489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -531,14 +497,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="mailto:DCA@123" display="mailto:DCA@123" xr:uid="{E1497EB7-A3FE-4575-826F-5D1B222DD180}"/>
-    <hyperlink ref="B3" r:id="rId2" tooltip="mailto:KGD@123" display="mailto:KGD@123" xr:uid="{EE52046F-A824-427B-9981-C4ABA1A28A21}"/>
-    <hyperlink ref="B5" r:id="rId3" tooltip="mailto:DKG@123" display="mailto:DKG@123" xr:uid="{7F7A8179-95AE-4827-9F3A-2DF1DA521DE1}"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="mailto:DCA@123" display="mailto:DCA@123"/>
+    <hyperlink ref="B3" r:id="rId2" tooltip="mailto:KGD@123" display="mailto:KGD@123"/>
+    <hyperlink ref="B5" r:id="rId3" tooltip="mailto:DKG@123" display="mailto:DKG@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -546,24 +512,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
